--- a/exel_report_to_paste.xlsx
+++ b/exel_report_to_paste.xlsx
@@ -945,8 +945,8 @@
   </sheetPr>
   <dimension ref="A1:CU99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U72" sqref="U72:Y72"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76:G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1"/>
@@ -2432,7 +2432,7 @@
       <c r="C69" s="49" t="n"/>
       <c r="D69" s="54" t="inlineStr">
         <is>
-          <t>04.07.17</t>
+          <t>12.11.23</t>
         </is>
       </c>
       <c r="E69" s="49" t="n"/>
@@ -2442,15 +2442,16 @@
       <c r="G69" s="49" t="n"/>
       <c r="H69" s="47" t="inlineStr">
         <is>
-          <t>ДО "Тандер"</t>
+          <t>ОБЩЕСТВС СОГРАНИЧЕННОЙ  .ОТВЕТСТВЕННОСТЬЮ ГАЗПРОМНЕФТЬ  ЦЕНТР" РЕГИОНАЛЬНЫЕПРОДА</t>
         </is>
       </c>
       <c r="I69" s="48" t="n"/>
       <c r="J69" s="48" t="n"/>
       <c r="K69" s="49" t="n"/>
-      <c r="L69" s="67">
-        <f>118</f>
-        <v/>
+      <c r="L69" s="67" t="inlineStr">
+        <is>
+          <t>1495.50</t>
+        </is>
       </c>
       <c r="M69" s="48" t="n"/>
       <c r="N69" s="49" t="n"/>
@@ -2477,7 +2478,7 @@
       <c r="C70" s="49" t="n"/>
       <c r="D70" s="54" t="inlineStr">
         <is>
-          <t>12.04.18</t>
+          <t>12.11.23</t>
         </is>
       </c>
       <c r="E70" s="49" t="n"/>
@@ -2487,15 +2488,16 @@
       <c r="G70" s="49" t="n"/>
       <c r="H70" s="47" t="inlineStr">
         <is>
-          <t>Иванова Анна БорисоВНа</t>
+          <t>ОБЩЕСТВС СОГРАНИЧЕННОЙ  .ОТВЕТСТВЕННОСТЬЮ ГАЗПРОМНЕФТЬ  ЦЕНТР" РЕГИОНАЛЬНЫЕПРОДА</t>
         </is>
       </c>
       <c r="I70" s="48" t="n"/>
       <c r="J70" s="48" t="n"/>
       <c r="K70" s="49" t="n"/>
-      <c r="L70" s="67">
-        <f>1800</f>
-        <v/>
+      <c r="L70" s="67" t="inlineStr">
+        <is>
+          <t>1495.50</t>
+        </is>
       </c>
       <c r="M70" s="48" t="n"/>
       <c r="N70" s="49" t="n"/>
@@ -2522,7 +2524,7 @@
       <c r="C71" s="49" t="n"/>
       <c r="D71" s="72" t="inlineStr">
         <is>
-          <t>2316.04</t>
+          <t>07.1912:</t>
         </is>
       </c>
       <c r="E71" s="49" t="n"/>
@@ -2532,7 +2534,7 @@
       <c r="G71" s="49" t="n"/>
       <c r="H71" s="47" t="inlineStr">
         <is>
-          <t>Общество ограниченной ответственностью"Газпромнефть Центр"</t>
+          <t>ЦИВИДУАЛЬНЫЙПРЕДПРИНИМТЕ ООО "КОМПАНИЯ ТЕНЗОР</t>
         </is>
       </c>
       <c r="I71" s="48" t="n"/>
@@ -2540,7 +2542,7 @@
       <c r="K71" s="49" t="n"/>
       <c r="L71" s="57" t="inlineStr">
         <is>
-          <t>1495.50</t>
+          <t>A736UU</t>
         </is>
       </c>
       <c r="M71" s="53" t="n"/>
@@ -2568,7 +2570,7 @@
       <c r="C72" s="49" t="n"/>
       <c r="D72" s="72" t="inlineStr">
         <is>
-          <t>04.03.24</t>
+          <t>07.1912:</t>
         </is>
       </c>
       <c r="E72" s="49" t="n"/>
@@ -2578,13 +2580,17 @@
       <c r="G72" s="49" t="n"/>
       <c r="H72" s="47" t="inlineStr">
         <is>
-          <t>ИП МЯМИН  НИКИТА СЕРГЕВВИЧ ИЙ,</t>
+          <t>ЦИВИДУАЛЬНЫЙПРЕДПРИНИМТЕ ООО "КОМПАНИЯ ТЕНЗОР</t>
         </is>
       </c>
       <c r="I72" s="48" t="n"/>
       <c r="J72" s="48" t="n"/>
       <c r="K72" s="49" t="n"/>
-      <c r="L72" s="57" t="inlineStr"/>
+      <c r="L72" s="57" t="inlineStr">
+        <is>
+          <t>A736UU</t>
+        </is>
+      </c>
       <c r="M72" s="53" t="n"/>
       <c r="N72" s="53" t="n"/>
       <c r="O72" s="68" t="n"/>
@@ -2608,29 +2614,15 @@
         <v>6</v>
       </c>
       <c r="C73" s="49" t="n"/>
-      <c r="D73" s="72" t="inlineStr">
-        <is>
-          <t>12.1123</t>
-        </is>
-      </c>
+      <c r="D73" s="72" t="n"/>
       <c r="E73" s="49" t="n"/>
-      <c r="F73" s="55" t="n">
-        <v>59</v>
-      </c>
+      <c r="F73" s="55" t="n"/>
       <c r="G73" s="49" t="n"/>
-      <c r="H73" s="47" t="inlineStr">
-        <is>
-          <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ГАЗПРОМНЕФТЬ  ЦЕНТР</t>
-        </is>
-      </c>
+      <c r="H73" s="47" t="n"/>
       <c r="I73" s="48" t="n"/>
       <c r="J73" s="48" t="n"/>
       <c r="K73" s="49" t="n"/>
-      <c r="L73" s="57" t="inlineStr">
-        <is>
-          <t>1495.50</t>
-        </is>
-      </c>
+      <c r="L73" s="57" t="n"/>
       <c r="M73" s="53" t="n"/>
       <c r="N73" s="53" t="n"/>
       <c r="O73" s="68" t="n"/>
@@ -2639,11 +2631,7 @@
       <c r="R73" s="47" t="n"/>
       <c r="S73" s="48" t="n"/>
       <c r="T73" s="49" t="n"/>
-      <c r="U73" s="47" t="inlineStr">
-        <is>
-          <t>Договор №203 о Выполнении таски в Jira</t>
-        </is>
-      </c>
+      <c r="U73" s="47" t="n"/>
       <c r="V73" s="48" t="n"/>
       <c r="W73" s="48" t="n"/>
       <c r="X73" s="48" t="n"/>
@@ -2654,29 +2642,15 @@
         <v>7</v>
       </c>
       <c r="C74" s="49" t="n"/>
-      <c r="D74" s="54" t="inlineStr">
-        <is>
-          <t>18.11.2316:3</t>
-        </is>
-      </c>
+      <c r="D74" s="54" t="n"/>
       <c r="E74" s="49" t="n"/>
-      <c r="F74" s="55" t="n">
-        <v>59</v>
-      </c>
+      <c r="F74" s="55" t="n"/>
       <c r="G74" s="49" t="n"/>
-      <c r="H74" s="47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АО </t>
-        </is>
-      </c>
+      <c r="H74" s="47" t="n"/>
       <c r="I74" s="48" t="n"/>
       <c r="J74" s="48" t="n"/>
       <c r="K74" s="49" t="n"/>
-      <c r="L74" s="57" t="inlineStr">
-        <is>
-          <t>200:2.OC</t>
-        </is>
-      </c>
+      <c r="L74" s="57" t="n"/>
       <c r="M74" s="53" t="n"/>
       <c r="N74" s="53" t="n"/>
       <c r="O74" s="68" t="n"/>
@@ -2685,11 +2659,7 @@
       <c r="R74" s="47" t="n"/>
       <c r="S74" s="48" t="n"/>
       <c r="T74" s="49" t="n"/>
-      <c r="U74" s="47" t="inlineStr">
-        <is>
-          <t>Договор №203 о Выполнении таски в Jira</t>
-        </is>
-      </c>
+      <c r="U74" s="47" t="n"/>
       <c r="V74" s="48" t="n"/>
       <c r="W74" s="48" t="n"/>
       <c r="X74" s="48" t="n"/>
@@ -2700,29 +2670,15 @@
         <v>8</v>
       </c>
       <c r="C75" s="49" t="n"/>
-      <c r="D75" s="54" t="inlineStr">
-        <is>
-          <t>25.01.24</t>
-        </is>
-      </c>
+      <c r="D75" s="54" t="n"/>
       <c r="E75" s="49" t="n"/>
-      <c r="F75" s="55" t="n">
-        <v>59</v>
-      </c>
+      <c r="F75" s="55" t="n"/>
       <c r="G75" s="49" t="n"/>
-      <c r="H75" s="47" t="inlineStr">
-        <is>
-          <t>ФГАОУ ВО "УРФУ  ИМЕНИ ПЕРВОГО ПРЕЗИДЕНТА  РОССИИ Б  .Н.ЕЛЬЦИНА,</t>
-        </is>
-      </c>
+      <c r="H75" s="47" t="n"/>
       <c r="I75" s="48" t="n"/>
       <c r="J75" s="48" t="n"/>
       <c r="K75" s="49" t="n"/>
-      <c r="L75" s="57" t="inlineStr">
-        <is>
-          <t>1539.16</t>
-        </is>
-      </c>
+      <c r="L75" s="57" t="n"/>
       <c r="M75" s="53" t="n"/>
       <c r="N75" s="53" t="n"/>
       <c r="O75" s="68" t="n"/>
@@ -2731,11 +2687,7 @@
       <c r="R75" s="47" t="n"/>
       <c r="S75" s="48" t="n"/>
       <c r="T75" s="49" t="n"/>
-      <c r="U75" s="47" t="inlineStr">
-        <is>
-          <t>Договор №203 о Выполнении таски в Jira</t>
-        </is>
-      </c>
+      <c r="U75" s="47" t="n"/>
       <c r="V75" s="48" t="n"/>
       <c r="W75" s="48" t="n"/>
       <c r="X75" s="48" t="n"/>
@@ -2746,24 +2698,15 @@
         <v>9</v>
       </c>
       <c r="C76" s="49" t="n"/>
-      <c r="D76" s="54" t="inlineStr">
-        <is>
-          <t>06.07.1</t>
-        </is>
-      </c>
+      <c r="D76" s="54" t="n"/>
       <c r="E76" s="49" t="n"/>
-      <c r="F76" s="55" t="n">
-        <v>59</v>
-      </c>
+      <c r="F76" s="55" t="n"/>
       <c r="G76" s="49" t="n"/>
-      <c r="H76" s="47" t="inlineStr"/>
+      <c r="H76" s="47" t="n"/>
       <c r="I76" s="48" t="n"/>
       <c r="J76" s="48" t="n"/>
       <c r="K76" s="49" t="n"/>
-      <c r="L76" s="57">
-        <f>736.0U</f>
-        <v/>
-      </c>
+      <c r="L76" s="57" t="n"/>
       <c r="M76" s="53" t="n"/>
       <c r="N76" s="53" t="n"/>
       <c r="O76" s="68" t="n"/>
@@ -2772,11 +2715,7 @@
       <c r="R76" s="47" t="n"/>
       <c r="S76" s="48" t="n"/>
       <c r="T76" s="49" t="n"/>
-      <c r="U76" s="47" t="inlineStr">
-        <is>
-          <t>Договор №203 о Выполнении таски в Jira</t>
-        </is>
-      </c>
+      <c r="U76" s="47" t="n"/>
       <c r="V76" s="48" t="n"/>
       <c r="W76" s="48" t="n"/>
       <c r="X76" s="48" t="n"/>
@@ -2787,29 +2726,15 @@
         <v>10</v>
       </c>
       <c r="C77" s="49" t="n"/>
-      <c r="D77" s="54" t="inlineStr">
-        <is>
-          <t>04.07.1709:08</t>
-        </is>
-      </c>
+      <c r="D77" s="54" t="n"/>
       <c r="E77" s="49" t="n"/>
-      <c r="F77" s="55" t="n">
-        <v>59</v>
-      </c>
+      <c r="F77" s="55" t="n"/>
       <c r="G77" s="49" t="n"/>
-      <c r="H77" s="47" t="inlineStr">
-        <is>
-          <t>АО "ТАНДЕР!</t>
-        </is>
-      </c>
+      <c r="H77" s="47" t="n"/>
       <c r="I77" s="48" t="n"/>
       <c r="J77" s="48" t="n"/>
       <c r="K77" s="49" t="n"/>
-      <c r="L77" s="57" t="inlineStr">
-        <is>
-          <t>S118.00</t>
-        </is>
-      </c>
+      <c r="L77" s="57" t="n"/>
       <c r="M77" s="53" t="n"/>
       <c r="N77" s="53" t="n"/>
       <c r="O77" s="68" t="n"/>
@@ -2818,11 +2743,7 @@
       <c r="R77" s="47" t="n"/>
       <c r="S77" s="48" t="n"/>
       <c r="T77" s="49" t="n"/>
-      <c r="U77" s="47" t="inlineStr">
-        <is>
-          <t>Договор №203 о Выполнении таски в Jira</t>
-        </is>
-      </c>
+      <c r="U77" s="47" t="n"/>
       <c r="V77" s="48" t="n"/>
       <c r="W77" s="48" t="n"/>
       <c r="X77" s="48" t="n"/>
@@ -2833,25 +2754,15 @@
         <v>11</v>
       </c>
       <c r="C78" s="49" t="n"/>
-      <c r="D78" s="54" t="inlineStr">
-        <is>
-          <t>12.04.1810:29</t>
-        </is>
-      </c>
+      <c r="D78" s="54" t="n"/>
       <c r="E78" s="49" t="n"/>
-      <c r="F78" s="55" t="n">
-        <v>59</v>
-      </c>
+      <c r="F78" s="55" t="n"/>
       <c r="G78" s="49" t="n"/>
-      <c r="H78" s="47" t="inlineStr">
-        <is>
-          <t>ИВАНОВА ННАБОРИСОВНА</t>
-        </is>
-      </c>
+      <c r="H78" s="47" t="n"/>
       <c r="I78" s="48" t="n"/>
       <c r="J78" s="48" t="n"/>
       <c r="K78" s="49" t="n"/>
-      <c r="L78" s="57" t="inlineStr"/>
+      <c r="L78" s="57" t="n"/>
       <c r="M78" s="53" t="n"/>
       <c r="N78" s="53" t="n"/>
       <c r="O78" s="68" t="n"/>
@@ -2860,11 +2771,7 @@
       <c r="R78" s="47" t="n"/>
       <c r="S78" s="48" t="n"/>
       <c r="T78" s="49" t="n"/>
-      <c r="U78" s="47" t="inlineStr">
-        <is>
-          <t>Договор №203 о Выполнении таски в Jira</t>
-        </is>
-      </c>
+      <c r="U78" s="47" t="n"/>
       <c r="V78" s="48" t="n"/>
       <c r="W78" s="48" t="n"/>
       <c r="X78" s="48" t="n"/>
@@ -3031,8 +2938,8 @@
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="W32:Y32"/>
     <mergeCell ref="J35:L35"/>
+    <mergeCell ref="Q31:S31"/>
     <mergeCell ref="L64:Q64"/>
-    <mergeCell ref="Q31:S31"/>
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="T26:Y26"/>
     <mergeCell ref="B77:C77"/>
@@ -3076,12 +2983,12 @@
     <mergeCell ref="W34:Y34"/>
     <mergeCell ref="O77:Q77"/>
     <mergeCell ref="T29:V29"/>
+    <mergeCell ref="Q33:S33"/>
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="U73:Y73"/>
-    <mergeCell ref="N32:P32"/>
     <mergeCell ref="R79:T79"/>
     <mergeCell ref="D73:E73"/>
-    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="N32:P32"/>
     <mergeCell ref="W30:Y30"/>
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="B64:C66"/>
@@ -3182,8 +3089,8 @@
     <mergeCell ref="L75:N75"/>
     <mergeCell ref="T35:V35"/>
     <mergeCell ref="L51:R51"/>
+    <mergeCell ref="R69:T69"/>
     <mergeCell ref="J34:L34"/>
-    <mergeCell ref="R69:T69"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="L68:N68"/>
     <mergeCell ref="D69:E69"/>
